--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BA3D5-83AD-440C-B1EF-7F948FD85508}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540CD335-24A6-45E0-B9D7-2670C09CAAE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29595" yWindow="1125" windowWidth="17040" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -352,6 +352,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
